--- a/question_difficulty_level_result/10.xlsx
+++ b/question_difficulty_level_result/10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -484,7 +509,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L1":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L1":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -511,6 +557,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,7 +587,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":1,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L2":0.7777777778,"L1":0.1111111111,"L3":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -566,7 +638,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"L2":8,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"L2":0.8888888889,"L3":0.1111111111}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -596,7 +689,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -627,6 +741,11 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,7 +771,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -682,7 +822,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":5,"L1":5}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L3":0.375,"L2":0.3125,"L1":0.3125}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -712,7 +873,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -742,7 +924,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -769,6 +972,11 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -795,6 +1003,11 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -821,6 +1034,11 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -846,7 +1064,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -876,7 +1115,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":14,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -906,7 +1166,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -932,7 +1213,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L1":2,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L1":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -962,7 +1264,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -992,7 +1315,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L1":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L1":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1022,7 +1366,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1053,6 +1418,11 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1078,7 +1448,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L3":4}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1104,7 +1495,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":4}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1131,6 +1543,11 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1156,7 +1573,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1186,7 +1624,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1216,7 +1675,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>16</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"L3":14,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1246,7 +1726,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{"L3":3}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1273,6 +1774,11 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1295,6 +1801,11 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1317,6 +1828,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1339,6 +1855,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1361,6 +1882,11 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1383,6 +1909,11 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1405,6 +1936,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1430,7 +1966,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>16</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":5,"L1":5}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{"L3":0.375,"L2":0.3125,"L1":0.3125}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1460,7 +2017,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1490,7 +2068,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1520,7 +2119,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":4}</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.5}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1550,7 +2170,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1581,6 +2222,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1607,6 +2253,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1633,6 +2284,11 @@
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1659,6 +2315,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1685,6 +2346,11 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1711,6 +2377,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1737,6 +2408,11 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1763,6 +2439,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1789,6 +2470,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1815,6 +2501,11 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1841,6 +2532,11 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1867,6 +2563,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1892,7 +2593,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1923,6 +2645,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1949,6 +2676,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1975,6 +2707,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2001,6 +2738,11 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
